--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -410,7 +410,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -421,29 +421,29 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>125</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -498,54 +498,54 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>166</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,21 +553,21 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -575,43 +575,43 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>260</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>413</v>
+        <v>336</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -641,21 +641,21 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>415</v>
+        <v>345</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>590</v>
+        <v>346</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>995</v>
+        <v>353</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -674,54 +674,54 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>997</v>
+        <v>361</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1126</v>
+        <v>362</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28">
-        <v>259</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1490</v>
+        <v>410</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1514</v>
+        <v>424</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1601</v>
+        <v>433</v>
       </c>
       <c r="B31">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1622</v>
+        <v>435</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1655</v>
+        <v>440</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -751,21 +751,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1703</v>
+        <v>524</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1767</v>
+        <v>590</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -773,54 +773,54 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1813</v>
+        <v>944</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2103</v>
+        <v>947</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2161</v>
+        <v>974</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2336</v>
+        <v>995</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>667</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2539</v>
+        <v>997</v>
       </c>
       <c r="B40">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -828,109 +828,109 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2743</v>
+        <v>998</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>389</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2836</v>
+        <v>1000</v>
       </c>
       <c r="B42">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2859</v>
+        <v>1070</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2912</v>
+        <v>1087</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2942</v>
+        <v>1163</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>266</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2945</v>
+        <v>1300</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2946</v>
+        <v>1309</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>687</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2990</v>
+        <v>1519</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>3053</v>
+        <v>1523</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>3104</v>
+        <v>1656</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -938,21 +938,21 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>3258</v>
+        <v>1728</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>3337</v>
+        <v>1766</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>3477</v>
+        <v>1767</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -971,21 +971,21 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>3478</v>
+        <v>2055</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>525</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>3577</v>
+        <v>2103</v>
       </c>
       <c r="B55">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -993,32 +993,32 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>3892</v>
+        <v>2105</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>130</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>3982</v>
+        <v>2161</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>4043</v>
+        <v>2480</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>4672</v>
+        <v>2537</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1037,21 +1037,21 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>5652</v>
+        <v>2538</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>5654</v>
+        <v>2730</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>7</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>5656</v>
+        <v>2731</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,32 +1070,32 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>5812</v>
+        <v>2744</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>5812</v>
+        <v>2835</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>5813</v>
+        <v>2859</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -1103,18 +1103,18 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>5854</v>
+        <v>2879</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>5924</v>
+        <v>2912</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>6023</v>
+        <v>2945</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -1136,51 +1136,51 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>6422</v>
+        <v>2946</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>707</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>6935</v>
+        <v>2947</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>6936</v>
+        <v>3047</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>7324</v>
+        <v>3048</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>7360</v>
+        <v>3049</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>7518</v>
+        <v>3104</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1202,51 +1202,51 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>7703</v>
+        <v>3442</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>7704</v>
+        <v>3475</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>7885</v>
+        <v>3528</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C77">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>7886</v>
+        <v>3892</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>8058</v>
+        <v>3893</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>8106</v>
+        <v>3894</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1268,32 +1268,32 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>8155</v>
+        <v>3910</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>8216</v>
+        <v>4030</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C82">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>8254</v>
+        <v>4043</v>
       </c>
       <c r="B83">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C83">
         <v>7</v>
@@ -1301,32 +1301,32 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>8659</v>
+        <v>5081</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>138</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>8674</v>
+        <v>5109</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>314</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>8896</v>
+        <v>5585</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>7</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>8898</v>
+        <v>5722</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>7</v>
@@ -1345,18 +1345,18 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>8927</v>
+        <v>5734</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>902</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>8945</v>
+        <v>5812</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1367,18 +1367,18 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>9088</v>
+        <v>5812</v>
       </c>
       <c r="B90">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>9507</v>
+        <v>6023</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>9507</v>
+        <v>6422</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -1400,29 +1400,29 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>9760</v>
+        <v>6540</v>
       </c>
       <c r="B93">
         <v>29</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>9796</v>
+        <v>6627</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>10275</v>
+        <v>6628</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>10384</v>
+        <v>6872</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>10397</v>
+        <v>7036</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>7</v>
@@ -1455,87 +1455,87 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>10459</v>
+        <v>7518</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>10460</v>
+        <v>8157</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>10529</v>
+        <v>8216</v>
       </c>
       <c r="B100">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>10669</v>
+        <v>8285</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>10924</v>
+        <v>8285</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>10925</v>
+        <v>8685</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>11409</v>
+        <v>8897</v>
       </c>
       <c r="B104">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>11411</v>
+        <v>8898</v>
       </c>
       <c r="B105">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C105">
         <v>7</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>11510</v>
+        <v>8926</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>7</v>
@@ -1554,43 +1554,43 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>11583</v>
+        <v>8927</v>
       </c>
       <c r="B107">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>916</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>11659</v>
+        <v>8963</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>11719</v>
+        <v>9082</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>11765</v>
+        <v>9085</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C110">
         <v>7</v>
@@ -1598,40 +1598,40 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>11769</v>
+        <v>9289</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C111">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>11855</v>
+        <v>9491</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>11920</v>
+        <v>9491</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>11952</v>
+        <v>9507</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1642,21 +1642,21 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>11960</v>
+        <v>9608</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>12227</v>
+        <v>9760</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -1664,43 +1664,43 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>12304</v>
+        <v>9778</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>12430</v>
+        <v>9779</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>12489</v>
+        <v>9797</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>12661</v>
+        <v>9965</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>7</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>12721</v>
+        <v>10278</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>7</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>12723</v>
+        <v>10397</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122">
         <v>7</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>12725</v>
+        <v>10410</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1741,51 +1741,51 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>12870</v>
+        <v>10507</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>12901</v>
+        <v>10529</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C125">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>12930</v>
+        <v>10924</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>13163</v>
+        <v>10940</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>345</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>13165</v>
+        <v>11116</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>13173</v>
+        <v>11150</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1807,21 +1807,21 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>13174</v>
+        <v>11160</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>560</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>13290</v>
+        <v>11338</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C131">
         <v>7</v>
@@ -1829,29 +1829,29 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>13484</v>
+        <v>11435</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132">
-        <v>7</v>
+        <v>540</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>13490</v>
+        <v>11467</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>13857</v>
+        <v>11494</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1862,62 +1862,62 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>13858</v>
+        <v>11495</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
-        <v>246</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>13860</v>
+        <v>11510</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136">
-        <v>246</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>13884</v>
+        <v>11586</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>14038</v>
+        <v>11681</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>19501</v>
+        <v>11767</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>19582</v>
+        <v>11856</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1928,43 +1928,43 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>19971</v>
+        <v>11857</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>428</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>20256</v>
+        <v>11936</v>
       </c>
       <c r="B142">
         <v>2</v>
       </c>
       <c r="C142">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>20486</v>
+        <v>11950</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>681</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>20647</v>
+        <v>11953</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>7</v>
@@ -1972,32 +1972,32 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>21003</v>
+        <v>11967</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>317</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>21012</v>
+        <v>12150</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>21700</v>
+        <v>12162</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147">
         <v>7</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>21701</v>
+        <v>12236</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>21713</v>
+        <v>12240</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C149">
         <v>7</v>
@@ -2027,32 +2027,32 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>21789</v>
+        <v>12241</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>21793</v>
+        <v>12250</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>22874</v>
+        <v>12304</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C152">
         <v>7</v>
@@ -2060,40 +2060,40 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>22935</v>
+        <v>12332</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>23234</v>
+        <v>12335</v>
       </c>
       <c r="B154">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>23380</v>
+        <v>12373</v>
       </c>
       <c r="B155">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>23435</v>
+        <v>12417</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2104,10 +2104,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>23961</v>
+        <v>12505</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>7</v>
@@ -2115,23 +2115,496 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>24260</v>
+        <v>12513</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>24728</v>
+        <v>12594</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>12621</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>12912</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>12914</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>12918</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>12919</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>12925</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>12972</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>13034</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>13165</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>13199</v>
+      </c>
+      <c r="B169">
+        <v>23</v>
+      </c>
+      <c r="C169">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>13249</v>
+      </c>
+      <c r="B170">
+        <v>29</v>
+      </c>
+      <c r="C170">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>13490</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>13491</v>
+      </c>
+      <c r="B172">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>13857</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>13858</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>13893</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>14037</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>14039</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>19344</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>19581</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>19924</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>19965</v>
+      </c>
+      <c r="B181">
+        <v>29</v>
+      </c>
+      <c r="C181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>20486</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>20649</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>21012</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>21700</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>21701</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>21793</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>22313</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>22330</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>22708</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>22910</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>22920</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>22930</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>23336</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>23337</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>23423</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>23435</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>23961</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>23962</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>23992</v>
+      </c>
+      <c r="B200">
+        <v>29</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>24724</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>25278</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,18 +399,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -432,40 +432,40 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>125</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -476,21 +476,21 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -498,40 +498,40 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>635</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -542,32 +542,32 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,29 +619,29 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>346</v>
+        <v>590</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>353</v>
+        <v>688</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -674,62 +674,62 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>361</v>
+        <v>926</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>171</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>362</v>
+        <v>950</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>156</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>410</v>
+        <v>955</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>424</v>
+        <v>972</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>433</v>
+        <v>975</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>435</v>
+        <v>995</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>440</v>
+        <v>997</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -751,21 +751,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>524</v>
+        <v>1060</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>590</v>
+        <v>1070</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -773,32 +773,32 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>944</v>
+        <v>1407</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>947</v>
+        <v>1409</v>
       </c>
       <c r="B37">
         <v>15</v>
       </c>
       <c r="C37">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>974</v>
+        <v>1490</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -806,21 +806,21 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>995</v>
+        <v>1515</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>997</v>
+        <v>1668</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>998</v>
+        <v>1691</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1000</v>
+        <v>1703</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1070</v>
+        <v>1765</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -861,21 +861,21 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1087</v>
+        <v>1767</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1163</v>
+        <v>1813</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -883,18 +883,18 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1300</v>
+        <v>1814</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>296</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1309</v>
+        <v>2103</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -905,54 +905,54 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1519</v>
+        <v>2160</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C48">
-        <v>1844</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1523</v>
+        <v>2325</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1656</v>
+        <v>2336</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1728</v>
+        <v>2730</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1766</v>
+        <v>2738</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1767</v>
+        <v>2776</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -971,40 +971,40 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2055</v>
+        <v>2778</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>525</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2103</v>
+        <v>2857</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2105</v>
+        <v>2859</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>335</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2161</v>
+        <v>2879</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>2480</v>
+        <v>2916</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2537</v>
+        <v>2985</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>2538</v>
+        <v>3278</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -1048,21 +1048,21 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2730</v>
+        <v>3477</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>2731</v>
+        <v>3664</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,21 +1070,21 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>2744</v>
+        <v>3903</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C63">
-        <v>388</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>2835</v>
+        <v>3975</v>
       </c>
       <c r="B64">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>2859</v>
+        <v>4030</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -1103,21 +1103,21 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>2879</v>
+        <v>4043</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C66">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>2912</v>
+        <v>4076</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>2945</v>
+        <v>4232</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -1136,32 +1136,32 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>2946</v>
+        <v>4670</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>707</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2947</v>
+        <v>5080</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3047</v>
+        <v>5086</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -1169,21 +1169,21 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3048</v>
+        <v>5151</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>300</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3049</v>
+        <v>5452</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3104</v>
+        <v>5584</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>7</v>
@@ -1202,18 +1202,18 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3442</v>
+        <v>5644</v>
       </c>
       <c r="B75">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3475</v>
+        <v>5733</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3528</v>
+        <v>5737</v>
       </c>
       <c r="B77">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -1235,21 +1235,21 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3892</v>
+        <v>5812</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>3893</v>
+        <v>5831</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79">
         <v>7</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>3894</v>
+        <v>6023</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1268,32 +1268,32 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>3910</v>
+        <v>6097</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>4030</v>
+        <v>6158</v>
       </c>
       <c r="B82">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>4043</v>
+        <v>7036</v>
       </c>
       <c r="B83">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>7</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>5081</v>
+        <v>7360</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>7</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>5109</v>
+        <v>7518</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1323,32 +1323,32 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>5585</v>
+        <v>7885</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>5722</v>
+        <v>8216</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>5734</v>
+        <v>8274</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>7</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>5812</v>
+        <v>8674</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -1367,32 +1367,32 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>5812</v>
+        <v>8927</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>928</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>6023</v>
+        <v>9069</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>6422</v>
+        <v>9289</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -1400,21 +1400,21 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>6540</v>
+        <v>9358</v>
       </c>
       <c r="B93">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>6627</v>
+        <v>9507</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -1422,21 +1422,21 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>6628</v>
+        <v>9760</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>6872</v>
+        <v>9829</v>
       </c>
       <c r="B96">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>7036</v>
+        <v>9835</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97">
         <v>7</v>
@@ -1455,76 +1455,76 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>7518</v>
+        <v>10150</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>8157</v>
+        <v>10446</v>
       </c>
       <c r="B99">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>8216</v>
+        <v>10616</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>8285</v>
+        <v>10669</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>8285</v>
+        <v>10719</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C102">
-        <v>533</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>8685</v>
+        <v>10940</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>7</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>8897</v>
+        <v>11089</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>8898</v>
+        <v>11091</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>7</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>8926</v>
+        <v>11116</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1554,84 +1554,84 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>8927</v>
+        <v>11150</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>916</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>8963</v>
+        <v>11183</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>9082</v>
+        <v>11288</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>9085</v>
+        <v>11409</v>
       </c>
       <c r="B110">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C110">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>9289</v>
+        <v>11659</v>
       </c>
       <c r="B111">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>9491</v>
+        <v>11684</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>48</v>
+        <v>324</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>9491</v>
+        <v>11707</v>
       </c>
       <c r="B113">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>2505</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>9507</v>
+        <v>11855</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1642,21 +1642,21 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>9608</v>
+        <v>11914</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>9760</v>
+        <v>12055</v>
       </c>
       <c r="B116">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -1664,21 +1664,21 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>9778</v>
+        <v>12227</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>9779</v>
+        <v>12229</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>7</v>
@@ -1686,21 +1686,21 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>9797</v>
+        <v>12234</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
       <c r="C119">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>9965</v>
+        <v>12235</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C120">
         <v>7</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>10278</v>
+        <v>12239</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>7</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>10397</v>
+        <v>12239</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>10410</v>
+        <v>12347</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1741,21 +1741,21 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>10507</v>
+        <v>12350</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>10529</v>
+        <v>12352</v>
       </c>
       <c r="B125">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>7</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>10924</v>
+        <v>12489</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126">
         <v>7</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>10940</v>
+        <v>12621</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127">
         <v>7</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>11116</v>
+        <v>12791</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>11150</v>
+        <v>12923</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1807,21 +1807,21 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>11160</v>
+        <v>13176</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>560</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>11338</v>
+        <v>13177</v>
       </c>
       <c r="B131">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>7</v>
@@ -1829,18 +1829,18 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>11435</v>
+        <v>13481</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>540</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>11467</v>
+        <v>13483</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1851,18 +1851,18 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>11494</v>
+        <v>13858</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>11495</v>
+        <v>13885</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>11510</v>
+        <v>19047</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -1884,32 +1884,32 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>11586</v>
+        <v>19581</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <v>667</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>11681</v>
+        <v>19582</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>11767</v>
+        <v>20647</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>7</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>11856</v>
+        <v>20650</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1928,43 +1928,43 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>11857</v>
+        <v>21010</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>11936</v>
+        <v>21316</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>145</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>11950</v>
+        <v>21697</v>
       </c>
       <c r="B143">
         <v>3</v>
       </c>
       <c r="C143">
-        <v>681</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>11953</v>
+        <v>21699</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C144">
         <v>7</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>11967</v>
+        <v>21701</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>7</v>
@@ -1983,32 +1983,32 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>12150</v>
+        <v>21946</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>12162</v>
+        <v>22317</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>12236</v>
+        <v>22935</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>7</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>12240</v>
+        <v>23234</v>
       </c>
       <c r="B149">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C149">
         <v>7</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>12241</v>
+        <v>23336</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -2038,32 +2038,32 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>12250</v>
+        <v>23428</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C151">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>12304</v>
+        <v>23429</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152">
-        <v>7</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>12332</v>
+        <v>23490</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C153">
         <v>7</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>12335</v>
+        <v>23605</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C154">
         <v>7</v>
@@ -2082,529 +2082,23 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>12373</v>
+        <v>24120</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>12417</v>
+        <v>24723</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157">
-        <v>12505</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158">
-        <v>12513</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
-        <v>12594</v>
-      </c>
-      <c r="B159">
-        <v>7</v>
-      </c>
-      <c r="C159">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160">
-        <v>12621</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161">
-        <v>12912</v>
-      </c>
-      <c r="B161">
-        <v>3</v>
-      </c>
-      <c r="C161">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162">
-        <v>12914</v>
-      </c>
-      <c r="B162">
-        <v>3</v>
-      </c>
-      <c r="C162">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163">
-        <v>12918</v>
-      </c>
-      <c r="B163">
-        <v>3</v>
-      </c>
-      <c r="C163">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164">
-        <v>12919</v>
-      </c>
-      <c r="B164">
-        <v>3</v>
-      </c>
-      <c r="C164">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165">
-        <v>12925</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166">
-        <v>12972</v>
-      </c>
-      <c r="B166">
-        <v>3</v>
-      </c>
-      <c r="C166">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167">
-        <v>13034</v>
-      </c>
-      <c r="B167">
-        <v>3</v>
-      </c>
-      <c r="C167">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168">
-        <v>13165</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169">
-        <v>13199</v>
-      </c>
-      <c r="B169">
-        <v>23</v>
-      </c>
-      <c r="C169">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170">
-        <v>13249</v>
-      </c>
-      <c r="B170">
-        <v>29</v>
-      </c>
-      <c r="C170">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171">
-        <v>13490</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172">
-        <v>13491</v>
-      </c>
-      <c r="B172">
-        <v>7</v>
-      </c>
-      <c r="C172">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
-        <v>13857</v>
-      </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-      <c r="C173">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174">
-        <v>13858</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175">
-        <v>13893</v>
-      </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-      <c r="C175">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176">
-        <v>14037</v>
-      </c>
-      <c r="B176">
-        <v>3</v>
-      </c>
-      <c r="C176">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177">
-        <v>14039</v>
-      </c>
-      <c r="B177">
-        <v>3</v>
-      </c>
-      <c r="C177">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178">
-        <v>19344</v>
-      </c>
-      <c r="B178">
-        <v>2</v>
-      </c>
-      <c r="C178">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179">
-        <v>19581</v>
-      </c>
-      <c r="B179">
-        <v>3</v>
-      </c>
-      <c r="C179">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180">
-        <v>19924</v>
-      </c>
-      <c r="B180">
-        <v>2</v>
-      </c>
-      <c r="C180">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181">
-        <v>19965</v>
-      </c>
-      <c r="B181">
-        <v>29</v>
-      </c>
-      <c r="C181">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182">
-        <v>20486</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-      <c r="C182">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183">
-        <v>20649</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184">
-        <v>21012</v>
-      </c>
-      <c r="B184">
-        <v>2</v>
-      </c>
-      <c r="C184">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185">
-        <v>21700</v>
-      </c>
-      <c r="B185">
-        <v>3</v>
-      </c>
-      <c r="C185">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186">
-        <v>21701</v>
-      </c>
-      <c r="B186">
-        <v>3</v>
-      </c>
-      <c r="C186">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187">
-        <v>21793</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188">
-        <v>22313</v>
-      </c>
-      <c r="B188">
-        <v>2</v>
-      </c>
-      <c r="C188">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189">
-        <v>22330</v>
-      </c>
-      <c r="B189">
-        <v>3</v>
-      </c>
-      <c r="C189">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190">
-        <v>22708</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191">
-        <v>22910</v>
-      </c>
-      <c r="B191">
-        <v>3</v>
-      </c>
-      <c r="C191">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192">
-        <v>22920</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193">
-        <v>22930</v>
-      </c>
-      <c r="B193">
-        <v>3</v>
-      </c>
-      <c r="C193">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194">
-        <v>23336</v>
-      </c>
-      <c r="B194">
-        <v>3</v>
-      </c>
-      <c r="C194">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195">
-        <v>23337</v>
-      </c>
-      <c r="B195">
-        <v>3</v>
-      </c>
-      <c r="C195">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196">
-        <v>23423</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197">
-        <v>23435</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198">
-        <v>23961</v>
-      </c>
-      <c r="B198">
-        <v>3</v>
-      </c>
-      <c r="C198">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199">
-        <v>23962</v>
-      </c>
-      <c r="B199">
-        <v>3</v>
-      </c>
-      <c r="C199">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200">
-        <v>23992</v>
-      </c>
-      <c r="B200">
-        <v>29</v>
-      </c>
-      <c r="C200">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201">
-        <v>24724</v>
-      </c>
-      <c r="B201">
-        <v>2</v>
-      </c>
-      <c r="C201">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202">
-        <v>25278</v>
-      </c>
-      <c r="B202">
-        <v>2</v>
-      </c>
-      <c r="C202">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -432,7 +432,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -443,32 +443,32 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,13 +476,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>623</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -498,21 +498,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -520,21 +520,21 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -542,32 +542,32 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,54 +597,54 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>346</v>
+        <v>458</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>170</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>382</v>
+        <v>515</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -658,48 +658,48 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>688</v>
+        <v>593</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>926</v>
+        <v>688</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>955</v>
+        <v>972</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -707,29 +707,29 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>972</v>
+        <v>995</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>975</v>
+        <v>997</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>995</v>
+        <v>1049</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>997</v>
+        <v>1059</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -751,54 +751,54 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1060</v>
+        <v>1124</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1070</v>
+        <v>1126</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1407</v>
+        <v>1433</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1409</v>
+        <v>1490</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1490</v>
+        <v>1766</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -806,65 +806,65 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1515</v>
+        <v>1886</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1668</v>
+        <v>2104</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1691</v>
+        <v>2105</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1703</v>
+        <v>2169</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1765</v>
+        <v>2336</v>
       </c>
       <c r="B43">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>664</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1767</v>
+        <v>2729</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1813</v>
+        <v>2734</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1814</v>
+        <v>2879</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2103</v>
+        <v>2946</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2160</v>
+        <v>3088</v>
       </c>
       <c r="B48">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2325</v>
+        <v>3258</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -927,21 +927,21 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2336</v>
+        <v>3388</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2730</v>
+        <v>3477</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -949,10 +949,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2738</v>
+        <v>3610</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2776</v>
+        <v>3889</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -971,43 +971,43 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2778</v>
+        <v>3891</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2857</v>
+        <v>3893</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2859</v>
+        <v>3909</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2879</v>
+        <v>4030</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>2916</v>
+        <v>4232</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2985</v>
+        <v>5452</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>3278</v>
+        <v>5644</v>
       </c>
       <c r="B60">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -1048,21 +1048,21 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>3477</v>
+        <v>5733</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3664</v>
+        <v>5734</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,21 +1070,21 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3903</v>
+        <v>6097</v>
       </c>
       <c r="B63">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>3975</v>
+        <v>6575</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -1092,76 +1092,76 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>4030</v>
+        <v>6936</v>
       </c>
       <c r="B65">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>4043</v>
+        <v>7885</v>
       </c>
       <c r="B66">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>4076</v>
+        <v>8216</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>4232</v>
+        <v>8274</v>
       </c>
       <c r="B68">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>4670</v>
+        <v>8285</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>5080</v>
+        <v>8635</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>5086</v>
+        <v>8674</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -1169,32 +1169,32 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>5151</v>
+        <v>8676</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>5452</v>
+        <v>9081</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>5584</v>
+        <v>9289</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C74">
         <v>7</v>
@@ -1202,32 +1202,32 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>5644</v>
+        <v>9828</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>5733</v>
+        <v>9835</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>5737</v>
+        <v>9910</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -1235,18 +1235,18 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>5812</v>
+        <v>10507</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>5831</v>
+        <v>10521</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>6023</v>
+        <v>10581</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80">
         <v>7</v>
@@ -1268,32 +1268,32 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>6097</v>
+        <v>10613</v>
       </c>
       <c r="B81">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>6158</v>
+        <v>10616</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>7036</v>
+        <v>10719</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C83">
         <v>7</v>
@@ -1301,18 +1301,18 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>7360</v>
+        <v>10816</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>7518</v>
+        <v>10897</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1323,43 +1323,43 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>7885</v>
+        <v>11091</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>8216</v>
+        <v>11409</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>8274</v>
+        <v>11409</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>8674</v>
+        <v>11467</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -1367,32 +1367,32 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>8927</v>
+        <v>11498</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>928</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>9069</v>
+        <v>11503</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>9289</v>
+        <v>11510</v>
       </c>
       <c r="B92">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -1400,21 +1400,21 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>9358</v>
+        <v>11555</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>9507</v>
+        <v>12059</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -1422,62 +1422,62 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>9760</v>
+        <v>12621</v>
       </c>
       <c r="B95">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>9829</v>
+        <v>12791</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>9835</v>
+        <v>12901</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>10150</v>
+        <v>12904</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98">
-        <v>488</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>10446</v>
+        <v>12906</v>
       </c>
       <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
         <v>10</v>
-      </c>
-      <c r="C99">
-        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>10616</v>
+        <v>12923</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1488,40 +1488,40 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>10669</v>
+        <v>12924</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>10719</v>
+        <v>13176</v>
       </c>
       <c r="B102">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>10940</v>
+        <v>13177</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>152</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>11089</v>
+        <v>13462</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>11091</v>
+        <v>13484</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>11116</v>
+        <v>19581</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>7</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>11150</v>
+        <v>19582</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1565,21 +1565,21 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>11183</v>
+        <v>21316</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>11288</v>
+        <v>21701</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109">
         <v>7</v>
@@ -1587,21 +1587,21 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>11409</v>
+        <v>21946</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>11659</v>
+        <v>22935</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>7</v>
@@ -1609,29 +1609,29 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>11684</v>
+        <v>22973</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>324</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>11707</v>
+        <v>23380</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C113">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>11855</v>
+        <v>23428</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>11914</v>
+        <v>23532</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <v>7</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>12055</v>
+        <v>23539</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>12227</v>
+        <v>23961</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>7</v>
@@ -1675,431 +1675,13 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>12229</v>
+        <v>24709</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119">
-        <v>12234</v>
-      </c>
-      <c r="B119">
-        <v>3</v>
-      </c>
-      <c r="C119">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120">
-        <v>12235</v>
-      </c>
-      <c r="B120">
-        <v>3</v>
-      </c>
-      <c r="C120">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121">
-        <v>12239</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122">
-        <v>12239</v>
-      </c>
-      <c r="B122">
-        <v>3</v>
-      </c>
-      <c r="C122">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123">
-        <v>12347</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124">
-        <v>12350</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125">
-        <v>12352</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126">
-        <v>12489</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127">
-        <v>12621</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
-        <v>12791</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129">
-        <v>12923</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130">
-        <v>13176</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131">
-        <v>13177</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132">
-        <v>13481</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133">
-        <v>13483</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134">
-        <v>13858</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135">
-        <v>13885</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136">
-        <v>19047</v>
-      </c>
-      <c r="B136">
-        <v>3</v>
-      </c>
-      <c r="C136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137">
-        <v>19581</v>
-      </c>
-      <c r="B137">
-        <v>3</v>
-      </c>
-      <c r="C137">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138">
-        <v>19582</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139">
-        <v>20647</v>
-      </c>
-      <c r="B139">
-        <v>2</v>
-      </c>
-      <c r="C139">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140">
-        <v>20650</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141">
-        <v>21010</v>
-      </c>
-      <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="C141">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142">
-        <v>21316</v>
-      </c>
-      <c r="B142">
-        <v>3</v>
-      </c>
-      <c r="C142">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143">
-        <v>21697</v>
-      </c>
-      <c r="B143">
-        <v>3</v>
-      </c>
-      <c r="C143">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144">
-        <v>21699</v>
-      </c>
-      <c r="B144">
-        <v>3</v>
-      </c>
-      <c r="C144">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
-        <v>21701</v>
-      </c>
-      <c r="B145">
-        <v>3</v>
-      </c>
-      <c r="C145">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146">
-        <v>21946</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147">
-        <v>22317</v>
-      </c>
-      <c r="B147">
-        <v>3</v>
-      </c>
-      <c r="C147">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148">
-        <v>22935</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149">
-        <v>23234</v>
-      </c>
-      <c r="B149">
-        <v>29</v>
-      </c>
-      <c r="C149">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150">
-        <v>23336</v>
-      </c>
-      <c r="B150">
-        <v>3</v>
-      </c>
-      <c r="C150">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151">
-        <v>23428</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152">
-        <v>23429</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153">
-        <v>23490</v>
-      </c>
-      <c r="B153">
-        <v>3</v>
-      </c>
-      <c r="C153">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154">
-        <v>23605</v>
-      </c>
-      <c r="B154">
-        <v>10</v>
-      </c>
-      <c r="C154">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155">
-        <v>24120</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156">
-        <v>24723</v>
-      </c>
-      <c r="B156">
-        <v>2</v>
-      </c>
-      <c r="C156">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,43 +399,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -454,87 +454,87 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>88</v>
+        <v>336</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>638</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>94</v>
+        <v>412</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>107</v>
+        <v>415</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>110</v>
+        <v>424</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>141</v>
+        <v>440</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>170</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>146</v>
+        <v>491</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>167</v>
+        <v>523</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>258</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>170</v>
+        <v>584</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -542,54 +542,54 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>186</v>
+        <v>590</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>192</v>
+        <v>823</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>248</v>
+        <v>1126</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>305</v>
+        <v>1409</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>331</v>
+        <v>1504</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,32 +597,32 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>336</v>
+        <v>1661</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>410</v>
+        <v>2055</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>440</v>
+        <v>2160</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,21 +630,21 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>458</v>
+        <v>2188</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1088</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>515</v>
+        <v>2328</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -652,32 +652,32 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>590</v>
+        <v>2335</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>109</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>593</v>
+        <v>2423</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>257</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>688</v>
+        <v>2878</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -685,18 +685,18 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>944</v>
+        <v>3340</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>972</v>
+        <v>3893</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>995</v>
+        <v>3894</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -718,32 +718,32 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>997</v>
+        <v>5208</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1049</v>
+        <v>5452</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1059</v>
+        <v>5733</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -751,29 +751,29 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1124</v>
+        <v>6935</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1126</v>
+        <v>6936</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>257</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1433</v>
+        <v>7036</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1490</v>
+        <v>7324</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1766</v>
+        <v>7724</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -806,65 +806,65 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1886</v>
+        <v>8915</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2104</v>
+        <v>8939</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>376</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2105</v>
+        <v>9069</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2169</v>
+        <v>9083</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>321</v>
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2336</v>
+        <v>9613</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>664</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2729</v>
+        <v>9691</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2734</v>
+        <v>9787</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2879</v>
+        <v>9827</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -894,21 +894,21 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2946</v>
+        <v>9829</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>3088</v>
+        <v>11081</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>3258</v>
+        <v>11104</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>3388</v>
+        <v>11116</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -938,21 +938,21 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>3477</v>
+        <v>11489</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>3610</v>
+        <v>11510</v>
       </c>
       <c r="B52">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -960,65 +960,65 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>3889</v>
+        <v>11581</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>3891</v>
+        <v>11681</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>3893</v>
+        <v>11684</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>3909</v>
+        <v>11846</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>262</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>4030</v>
+        <v>12586</v>
       </c>
       <c r="B57">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>646</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>4232</v>
+        <v>12924</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>5452</v>
+        <v>12925</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>5644</v>
+        <v>13028</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -1048,40 +1048,40 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>5733</v>
+        <v>13033</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>5734</v>
+        <v>13034</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>672</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>6097</v>
+        <v>13491</v>
       </c>
       <c r="B63">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>6575</v>
+        <v>13498</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -1092,76 +1092,76 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>6936</v>
+        <v>19047</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>7885</v>
+        <v>19581</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>8216</v>
+        <v>19582</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>8274</v>
+        <v>20649</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>390</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>8285</v>
+        <v>21269</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>8635</v>
+        <v>22956</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>386</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>8674</v>
+        <v>23335</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>8676</v>
+        <v>23960</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -1180,508 +1180,24 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>9081</v>
+        <v>24258</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>9289</v>
+        <v>24722</v>
       </c>
       <c r="B74">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>9828</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>9835</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="C76">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>9910</v>
-      </c>
-      <c r="B77">
-        <v>29</v>
-      </c>
-      <c r="C77">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>10507</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>10521</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>10581</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>10613</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>10616</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>10719</v>
-      </c>
-      <c r="B83">
-        <v>80</v>
-      </c>
-      <c r="C83">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>10816</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>10897</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>11091</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>11409</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>11409</v>
-      </c>
-      <c r="B88">
-        <v>7</v>
-      </c>
-      <c r="C88">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>11467</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>11498</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>11503</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>11510</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
-        <v>11555</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
-        <v>12059</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-      <c r="C94">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
-        <v>12621</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>12791</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>12901</v>
-      </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-      <c r="C97">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>12904</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>12906</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>12923</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>12924</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>13176</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>13177</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
-        <v>13462</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>13484</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
-        <v>19581</v>
-      </c>
-      <c r="B106">
-        <v>3</v>
-      </c>
-      <c r="C106">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
-        <v>19582</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
-        <v>21316</v>
-      </c>
-      <c r="B108">
-        <v>3</v>
-      </c>
-      <c r="C108">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109">
-        <v>21701</v>
-      </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-      <c r="C109">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
-        <v>21946</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
-        <v>22935</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112">
-        <v>22973</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113">
-        <v>23380</v>
-      </c>
-      <c r="B113">
-        <v>29</v>
-      </c>
-      <c r="C113">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114">
-        <v>23428</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115">
-        <v>23532</v>
-      </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-      <c r="C115">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116">
-        <v>23539</v>
-      </c>
-      <c r="B116">
-        <v>3</v>
-      </c>
-      <c r="C116">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
-        <v>23961</v>
-      </c>
-      <c r="B117">
-        <v>3</v>
-      </c>
-      <c r="C117">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118">
-        <v>24709</v>
-      </c>
-      <c r="B118">
-        <v>3</v>
-      </c>
-      <c r="C118">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,7 +413,7 @@
         <v>61</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,54 +432,54 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>336</v>
+        <v>167</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>412</v>
+        <v>168</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -487,46 +487,46 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>424</v>
+        <v>307</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>440</v>
+        <v>336</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>491</v>
+        <v>416</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -553,65 +553,65 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>823</v>
+        <v>593</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1126</v>
+        <v>615</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>257</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1409</v>
+        <v>955</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1504</v>
+        <v>1006</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1661</v>
+        <v>1007</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2055</v>
+        <v>1059</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2160</v>
+        <v>1163</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,54 +630,54 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2188</v>
+        <v>1185</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2328</v>
+        <v>1492</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2335</v>
+        <v>1504</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>221</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2423</v>
+        <v>1661</v>
       </c>
       <c r="B26">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2878</v>
+        <v>1767</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3340</v>
+        <v>1776</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3893</v>
+        <v>2054</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -707,73 +707,73 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3894</v>
+        <v>2105</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>5208</v>
+        <v>2328</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>5452</v>
+        <v>2423</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5733</v>
+        <v>2729</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>6935</v>
+        <v>2878</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>6936</v>
+        <v>3477</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>7036</v>
+        <v>3840</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>7324</v>
+        <v>3891</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -795,32 +795,32 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>7724</v>
+        <v>3892</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>8915</v>
+        <v>3893</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>8939</v>
+        <v>3894</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -828,43 +828,43 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>9069</v>
+        <v>3981</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>142</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>9083</v>
+        <v>4043</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C42">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>9613</v>
+        <v>5452</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>9691</v>
+        <v>5666</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>9787</v>
+        <v>5946</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -883,43 +883,43 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>9827</v>
+        <v>6936</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>9829</v>
+        <v>8284</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>11081</v>
+        <v>8672</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>11104</v>
+        <v>8675</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -927,32 +927,32 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>11116</v>
+        <v>8915</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>11489</v>
+        <v>8938</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>117</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>11510</v>
+        <v>8939</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -960,62 +960,62 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>11581</v>
+        <v>9083</v>
       </c>
       <c r="B53">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>546</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>11681</v>
+        <v>10780</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>13</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>11684</v>
+        <v>10939</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>11846</v>
+        <v>11081</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>317</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>12586</v>
+        <v>11104</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>646</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>12924</v>
+        <v>11116</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1026,54 +1026,54 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>12925</v>
+        <v>11234</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>13028</v>
+        <v>11581</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>13033</v>
+        <v>11681</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>672</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>13034</v>
+        <v>11684</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>672</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>13491</v>
+        <v>11868</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>13498</v>
+        <v>12721</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -1092,21 +1092,21 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>19047</v>
+        <v>12722</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>326</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>19581</v>
+        <v>12883</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>19582</v>
+        <v>12924</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1125,32 +1125,32 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>20649</v>
+        <v>13034</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>21269</v>
+        <v>13484</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>22956</v>
+        <v>13491</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C70">
         <v>7</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>23335</v>
+        <v>19582</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>23960</v>
+        <v>21269</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>24258</v>
+        <v>21793</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1191,13 +1191,13 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>24722</v>
+        <v>22935</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,21 +410,21 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,43 +432,43 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>171</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -487,98 +487,98 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>336</v>
+        <v>144</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>416</v>
+        <v>151</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>458</v>
+        <v>161</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1091</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>584</v>
+        <v>169</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>590</v>
+        <v>326</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>593</v>
+        <v>336</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>258</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>615</v>
+        <v>344</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>955</v>
+        <v>345</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -586,32 +586,32 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1006</v>
+        <v>346</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>249</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1007</v>
+        <v>362</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1059</v>
+        <v>440</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1163</v>
+        <v>584</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,54 +630,54 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1185</v>
+        <v>922</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>228</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1492</v>
+        <v>995</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1504</v>
+        <v>1000</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1661</v>
+        <v>1006</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1767</v>
+        <v>1059</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1776</v>
+        <v>1087</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -696,43 +696,43 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2054</v>
+        <v>1309</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2105</v>
+        <v>1490</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2328</v>
+        <v>1667</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2423</v>
+        <v>1776</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -740,18 +740,18 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2729</v>
+        <v>1777</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2878</v>
+        <v>2049</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3477</v>
+        <v>2055</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -773,43 +773,43 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3840</v>
+        <v>2104</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3891</v>
+        <v>2331</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3892</v>
+        <v>2336</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>131</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3893</v>
+        <v>2836</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>3894</v>
+        <v>2990</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -828,21 +828,21 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3981</v>
+        <v>3016</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4043</v>
+        <v>3143</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -850,21 +850,21 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>5452</v>
+        <v>3429</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>5666</v>
+        <v>3894</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>5946</v>
+        <v>4232</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -883,40 +883,40 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>6936</v>
+        <v>5085</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>8284</v>
+        <v>5151</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>8672</v>
+        <v>5453</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>8675</v>
+        <v>5513</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -927,87 +927,87 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>8915</v>
+        <v>5584</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>8938</v>
+        <v>5658</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>8939</v>
+        <v>6158</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>9083</v>
+        <v>6575</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>546</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>10780</v>
+        <v>8089</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>421</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>10939</v>
+        <v>8121</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>11081</v>
+        <v>8216</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>11104</v>
+        <v>8676</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -1015,65 +1015,65 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>11116</v>
+        <v>8753</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>11234</v>
+        <v>8898</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11581</v>
+        <v>9069</v>
       </c>
       <c r="B60">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>11681</v>
+        <v>9690</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>11684</v>
+        <v>9787</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>11868</v>
+        <v>10172</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -1081,21 +1081,21 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>12721</v>
+        <v>10397</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>12722</v>
+        <v>10516</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>12883</v>
+        <v>11090</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1114,43 +1114,43 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>12924</v>
+        <v>11159</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>13034</v>
+        <v>11181</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>672</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>13484</v>
+        <v>11914</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>213</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>13491</v>
+        <v>12058</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C70">
         <v>7</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>19582</v>
+        <v>12059</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>21269</v>
+        <v>12344</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>21793</v>
+        <v>12418</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1191,12 +1191,199 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
+        <v>12722</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>12857</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>12858</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>12964</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>13033</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>13034</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>13036</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>13280</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>13281</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>13498</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>19583</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>20649</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>21686</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
         <v>22935</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>23444</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>23560</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>23563</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>24127</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,197 +410,197 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>171</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>249</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>101</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>171</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>922</v>
+        <v>995</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -641,54 +641,54 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
-        <v>125</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1006</v>
+        <v>1163</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>257</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1059</v>
+        <v>1309</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1087</v>
+        <v>1602</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -696,51 +696,51 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1309</v>
+        <v>2054</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1490</v>
+        <v>2104</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>57</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1667</v>
+        <v>2168</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>237</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1776</v>
+        <v>2188</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1777</v>
+        <v>2331</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -751,65 +751,65 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2049</v>
+        <v>2336</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2055</v>
+        <v>2486</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2104</v>
+        <v>2990</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2331</v>
+        <v>3048</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2336</v>
+        <v>3104</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>664</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2836</v>
+        <v>3257</v>
       </c>
       <c r="B39">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2990</v>
+        <v>3892</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3016</v>
+        <v>3893</v>
       </c>
       <c r="B41">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>3143</v>
+        <v>3899</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -850,54 +850,54 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>3429</v>
+        <v>4232</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C43">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>3894</v>
+        <v>5151</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>4232</v>
+        <v>6158</v>
       </c>
       <c r="B45">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>5085</v>
+        <v>6935</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>5151</v>
+        <v>7005</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -905,18 +905,18 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>5453</v>
+        <v>7705</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>5513</v>
+        <v>7708</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -927,21 +927,21 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>5584</v>
+        <v>8285</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>5658</v>
+        <v>8557</v>
       </c>
       <c r="B51">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -949,120 +949,120 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>6158</v>
+        <v>8677</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>6575</v>
+        <v>8688</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>8089</v>
+        <v>8753</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>8121</v>
+        <v>8898</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>339</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>8216</v>
+        <v>9081</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>8676</v>
+        <v>9786</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>8753</v>
+        <v>9964</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>8898</v>
+        <v>9965</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>329</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>9069</v>
+        <v>10172</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>9690</v>
+        <v>10397</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>9787</v>
+        <v>10780</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,32 +1070,32 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>10172</v>
+        <v>10941</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>10397</v>
+        <v>10993</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>395</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>10516</v>
+        <v>11090</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>11090</v>
+        <v>11093</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1114,29 +1114,29 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>11159</v>
+        <v>11181</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>570</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>11181</v>
+        <v>11489</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>11914</v>
+        <v>11490</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1147,21 +1147,21 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>12058</v>
+        <v>11684</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>12059</v>
+        <v>11848</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>12344</v>
+        <v>12059</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>12418</v>
+        <v>12235</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -1191,18 +1191,18 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>12722</v>
+        <v>12344</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>320</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>12857</v>
+        <v>12345</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>12858</v>
+        <v>12721</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>7</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>12964</v>
+        <v>12857</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -1235,98 +1235,98 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>13033</v>
+        <v>12924</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>674</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>13034</v>
+        <v>13023</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>674</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>13036</v>
+        <v>13033</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>13280</v>
+        <v>19047</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>13281</v>
+        <v>19582</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>357</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>13498</v>
+        <v>20650</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>19583</v>
+        <v>21686</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>20649</v>
+        <v>21946</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>131</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>21686</v>
+        <v>22313</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>7</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>22935</v>
+        <v>22920</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>23444</v>
+        <v>22928</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>7</v>
@@ -1356,18 +1356,18 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>23560</v>
+        <v>23276</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>23563</v>
+        <v>23335</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1378,12 +1378,56 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>24127</v>
+        <v>23560</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>23563</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>23960</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>24708</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>25278</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,18 +399,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -421,73 +421,73 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>278</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -498,109 +498,109 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>170</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>205</v>
+        <v>336</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>214</v>
+        <v>413</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>741</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1465</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>409</v>
+        <v>515</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>416</v>
+        <v>590</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>435</v>
+        <v>974</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>590</v>
+        <v>995</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -641,54 +641,54 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1006</v>
+        <v>1087</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>257</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1309</v>
+        <v>1163</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1602</v>
+        <v>1309</v>
       </c>
       <c r="B28">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2054</v>
+        <v>1599</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -707,84 +707,84 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2104</v>
+        <v>1602</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C30">
-        <v>378</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2168</v>
+        <v>1776</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2188</v>
+        <v>1777</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2331</v>
+        <v>2169</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2486</v>
+        <v>2336</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>337</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2990</v>
+        <v>2486</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3048</v>
+        <v>2703</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -795,21 +795,21 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3104</v>
+        <v>2991</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>341</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3257</v>
+        <v>3048</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -817,21 +817,21 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>3892</v>
+        <v>3049</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3893</v>
+        <v>3257</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>3899</v>
+        <v>3670</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>4232</v>
+        <v>3893</v>
       </c>
       <c r="B43">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -867,37 +867,37 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>6158</v>
+        <v>5452</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>6935</v>
+        <v>5453</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>7005</v>
+        <v>5666</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -905,21 +905,21 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>7705</v>
+        <v>6158</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>7708</v>
+        <v>6575</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -927,21 +927,21 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>8285</v>
+        <v>6936</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
-        <v>540</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>8557</v>
+        <v>7005</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -949,43 +949,43 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>8677</v>
+        <v>8674</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>8688</v>
+        <v>8677</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>8753</v>
+        <v>8688</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>8898</v>
+        <v>8853</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -993,29 +993,29 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>9081</v>
+        <v>9069</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>9786</v>
+        <v>9289</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C57">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>9964</v>
+        <v>9971</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -1026,18 +1026,18 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>9965</v>
+        <v>10149</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>10172</v>
+        <v>10411</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1048,21 +1048,21 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>10397</v>
+        <v>10450</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>394</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>10780</v>
+        <v>10516</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,29 +1070,29 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>10941</v>
+        <v>10780</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>10993</v>
+        <v>11090</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>11090</v>
+        <v>11093</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1103,65 +1103,65 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>11093</v>
+        <v>11404</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>11181</v>
+        <v>11489</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>11489</v>
+        <v>11587</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>11490</v>
+        <v>11684</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>11684</v>
+        <v>11868</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>11848</v>
+        <v>12058</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>12235</v>
+        <v>12353</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -1191,18 +1191,18 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>12344</v>
+        <v>12870</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>12345</v>
+        <v>12924</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1213,21 +1213,21 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>12721</v>
+        <v>13023</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>12857</v>
+        <v>13028</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -1235,54 +1235,54 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>12924</v>
+        <v>13033</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>673</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>13023</v>
+        <v>13034</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>13033</v>
+        <v>13484</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>673</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>19047</v>
+        <v>13498</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
       <c r="C81">
-        <v>326</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>19582</v>
+        <v>13893</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>7</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>20650</v>
+        <v>13962</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>21686</v>
+        <v>13964</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>21946</v>
+        <v>13965</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>22313</v>
+        <v>13967</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>7</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>22920</v>
+        <v>13968</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1345,29 +1345,29 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>22928</v>
+        <v>19047</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>23276</v>
+        <v>19581</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>23335</v>
+        <v>19582</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>23560</v>
+        <v>19971</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>7</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>23563</v>
+        <v>20498</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>23960</v>
+        <v>20650</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>7</v>
@@ -1411,23 +1411,111 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>24708</v>
+        <v>21946</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
+        <v>22313</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>22924</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>22935</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>22960</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>23335</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>24127</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>24708</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>24712</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
         <v>25278</v>
       </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="C95">
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,7 +410,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,18 +432,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -454,43 +454,43 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>640</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>138</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -498,54 +498,54 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>413</v>
+        <v>170</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,18 +553,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>416</v>
+        <v>336</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -575,32 +575,32 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>470</v>
+        <v>362</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>515</v>
+        <v>413</v>
       </c>
       <c r="B19">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>229</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>590</v>
+        <v>415</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,18 +608,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>974</v>
+        <v>416</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>995</v>
+        <v>418</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>996</v>
+        <v>435</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -641,10 +641,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>997</v>
+        <v>515</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -652,32 +652,32 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1087</v>
+        <v>590</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1124</v>
+        <v>955</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1163</v>
+        <v>1070</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -685,21 +685,21 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1309</v>
+        <v>1163</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1599</v>
+        <v>1243</v>
       </c>
       <c r="B29">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="B30">
         <v>68</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1776</v>
+        <v>1602</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -729,29 +729,29 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1777</v>
+        <v>1622</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2169</v>
+        <v>1767</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>320</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2335</v>
+        <v>2168</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -762,76 +762,76 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2336</v>
+        <v>2497</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2486</v>
+        <v>2726</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>336</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2703</v>
+        <v>2878</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2991</v>
+        <v>3104</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3048</v>
+        <v>3495</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>3049</v>
+        <v>3670</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3257</v>
+        <v>3889</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>3670</v>
+        <v>3893</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>3893</v>
+        <v>3900</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -861,65 +861,65 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>5151</v>
+        <v>5453</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>5452</v>
+        <v>6540</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C45">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>5453</v>
+        <v>6575</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>5666</v>
+        <v>6936</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>6158</v>
+        <v>7724</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>6575</v>
+        <v>8058</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -927,117 +927,117 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>6936</v>
+        <v>8059</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>7005</v>
+        <v>8120</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>8674</v>
+        <v>8216</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>8677</v>
+        <v>8648</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>8688</v>
+        <v>8676</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>8853</v>
+        <v>8677</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>9069</v>
+        <v>8898</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>9289</v>
+        <v>8943</v>
       </c>
       <c r="B57">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>9971</v>
+        <v>9068</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>10149</v>
+        <v>9082</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>10411</v>
+        <v>9691</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1048,32 +1048,32 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>10450</v>
+        <v>9835</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>10516</v>
+        <v>10529</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>10780</v>
+        <v>11090</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -1081,18 +1081,18 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>11090</v>
+        <v>11489</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>11093</v>
+        <v>11490</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1103,65 +1103,65 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>11404</v>
+        <v>11587</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>11489</v>
+        <v>11684</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>118</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>11587</v>
+        <v>12235</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>11684</v>
+        <v>12870</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>11868</v>
+        <v>12923</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>333</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>12058</v>
+        <v>20486</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>12059</v>
+        <v>20650</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -1180,32 +1180,32 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>12353</v>
+        <v>20969</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>12870</v>
+        <v>22313</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>157</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>12924</v>
+        <v>24126</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>7</v>
@@ -1213,21 +1213,21 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>13023</v>
+        <v>24256</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>13028</v>
+        <v>24258</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -1235,288 +1235,24 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>13033</v>
+        <v>25278</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>673</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>13034</v>
+        <v>25344</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>13484</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>13498</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81">
         <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>13893</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>13962</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>13964</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>13965</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>13967</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>13968</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>19047</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="C88">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>19581</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>19582</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>19971</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>20498</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
-        <v>20650</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
-        <v>21946</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
-        <v>22313</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="C95">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>22924</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>22935</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>22960</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>23335</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>24127</v>
-      </c>
-      <c r="B100">
-        <v>3</v>
-      </c>
-      <c r="C100">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>24708</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>24712</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>25278</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,7 +410,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,18 +432,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -454,35 +454,35 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>632</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -520,21 +520,21 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,21 +553,21 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>361</v>
+        <v>201</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -575,32 +575,32 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>362</v>
+        <v>205</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>413</v>
+        <v>214</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,21 +608,21 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>416</v>
+        <v>336</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,43 +630,43 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>515</v>
+        <v>416</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>590</v>
+        <v>470</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1070</v>
+        <v>955</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -685,21 +685,21 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1163</v>
+        <v>1409</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>394</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1243</v>
+        <v>1413</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -707,21 +707,21 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1598</v>
+        <v>1519</v>
       </c>
       <c r="B30">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1602</v>
+        <v>1622</v>
       </c>
       <c r="B31">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -729,21 +729,21 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1622</v>
+        <v>1767</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2168</v>
+        <v>1895</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2497</v>
+        <v>2328</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2726</v>
+        <v>2775</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -784,54 +784,54 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2878</v>
+        <v>3478</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3104</v>
+        <v>3892</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>341</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3495</v>
+        <v>5005</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>3670</v>
+        <v>5097</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3889</v>
+        <v>5151</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -839,18 +839,18 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>3893</v>
+        <v>5208</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>3900</v>
+        <v>5209</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -861,13 +861,13 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>5453</v>
+        <v>6158</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -883,32 +883,32 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>6575</v>
+        <v>7704</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>6936</v>
+        <v>8635</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>7724</v>
+        <v>8648</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>8058</v>
+        <v>8897</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>8059</v>
+        <v>8926</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -938,32 +938,32 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>8120</v>
+        <v>9289</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C51">
-        <v>264</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>8216</v>
+        <v>9613</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>8648</v>
+        <v>9691</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -971,32 +971,32 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>8676</v>
+        <v>9796</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>8677</v>
+        <v>9827</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>8898</v>
+        <v>9998</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -1004,73 +1004,73 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>8943</v>
+        <v>10149</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>9068</v>
+        <v>10574</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>139</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>9082</v>
+        <v>10780</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>9691</v>
+        <v>11080</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>9835</v>
+        <v>11091</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>185</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>10529</v>
+        <v>11183</v>
       </c>
       <c r="B62">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>11090</v>
+        <v>11490</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1081,54 +1081,54 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>11489</v>
+        <v>11684</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>11490</v>
+        <v>11794</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>11587</v>
+        <v>11952</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>11684</v>
+        <v>12304</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>12235</v>
+        <v>12347</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -1136,21 +1136,21 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>12870</v>
+        <v>12586</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>12923</v>
+        <v>12964</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
         <v>7</v>
@@ -1158,54 +1158,54 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>20486</v>
+        <v>13033</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>673</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>20650</v>
+        <v>13034</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>20969</v>
+        <v>13041</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>22313</v>
+        <v>13484</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>24126</v>
+        <v>21793</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>7</v>
@@ -1213,46 +1213,90 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>24256</v>
+        <v>22317</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>24258</v>
+        <v>22565</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>25278</v>
+        <v>23234</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>25344</v>
+        <v>23961</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>23992</v>
+      </c>
+      <c r="B80">
+        <v>29</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>24258</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>25278</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>25345</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,79 +399,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,48 +482,48 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -531,21 +531,21 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,35 +553,35 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>119</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -592,18 +592,18 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -619,10 +619,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,43 +630,43 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>96</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>922</v>
+        <v>436</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -674,95 +674,95 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>955</v>
+        <v>440</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1409</v>
+        <v>470</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1413</v>
+        <v>590</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1519</v>
+        <v>593</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1852</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1622</v>
+        <v>615</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1767</v>
+        <v>616</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1777</v>
+        <v>738</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1895</v>
+        <v>823</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2328</v>
+        <v>880</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -773,32 +773,32 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2775</v>
+        <v>927</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3478</v>
+        <v>949</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3892</v>
+        <v>955</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -806,32 +806,32 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>5005</v>
+        <v>972</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>5097</v>
+        <v>1055</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40">
-        <v>187</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>5151</v>
+        <v>1059</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -839,21 +839,21 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>5208</v>
+        <v>1070</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>5209</v>
+        <v>1087</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -861,65 +861,65 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>6158</v>
+        <v>1309</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>6540</v>
+        <v>1406</v>
       </c>
       <c r="B45">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>7704</v>
+        <v>1409</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>197</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>8635</v>
+        <v>1413</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>8648</v>
+        <v>1414</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>8897</v>
+        <v>1446</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -927,32 +927,32 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>8926</v>
+        <v>1447</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>9289</v>
+        <v>1452</v>
       </c>
       <c r="B51">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>9613</v>
+        <v>1504</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -960,32 +960,32 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>9691</v>
+        <v>1519</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>9796</v>
+        <v>1601</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>9827</v>
+        <v>1602</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>9998</v>
+        <v>1622</v>
       </c>
       <c r="B56">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -1004,32 +1004,32 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>10149</v>
+        <v>1654</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>10574</v>
+        <v>1661</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>10780</v>
+        <v>1691</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -1037,32 +1037,32 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11080</v>
+        <v>1703</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>11091</v>
+        <v>1706</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>11183</v>
+        <v>1766</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,51 +1070,51 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>11490</v>
+        <v>1801</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>11684</v>
+        <v>2049</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>11794</v>
+        <v>2103</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>11952</v>
+        <v>2105</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>12304</v>
+        <v>2109</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1125,87 +1125,87 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>12347</v>
+        <v>2188</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>12586</v>
+        <v>2335</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>12964</v>
+        <v>2336</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>677</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>13033</v>
+        <v>2438</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>673</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>13034</v>
+        <v>2492</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>673</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>13041</v>
+        <v>2497</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>13484</v>
+        <v>2703</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>21793</v>
+        <v>2726</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>7</v>
@@ -1213,54 +1213,54 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>22317</v>
+        <v>2729</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>22565</v>
+        <v>2731</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>23234</v>
+        <v>2735</v>
       </c>
       <c r="B78">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>23961</v>
+        <v>2736</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>23992</v>
+        <v>2774</v>
       </c>
       <c r="B80">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C80">
         <v>7</v>
@@ -1268,21 +1268,21 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>24258</v>
+        <v>2859</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>157</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>25278</v>
+        <v>2990</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>7</v>
@@ -1290,12 +1290,1838 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
+        <v>2991</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>3048</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>3429</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>3475</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>3478</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>3495</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>3673</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>3892</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>3977</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>4043</v>
+      </c>
+      <c r="B92">
+        <v>29</v>
+      </c>
+      <c r="C92">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>4063</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>4223</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>4867</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>5020</v>
+      </c>
+      <c r="B96">
+        <v>23</v>
+      </c>
+      <c r="C96">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>5081</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>5083</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>5086</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>5121</v>
+      </c>
+      <c r="B100">
+        <v>332</v>
+      </c>
+      <c r="C100">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>5153</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>5165</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>5208</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>5209</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>5340</v>
+      </c>
+      <c r="B105">
+        <v>23</v>
+      </c>
+      <c r="C105">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>5341</v>
+      </c>
+      <c r="B106">
+        <v>16</v>
+      </c>
+      <c r="C106">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>5343</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>5343</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>5452</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>5453</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>5491</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>5493</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>5584</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>5642</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>5647</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>5866</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>5868</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>6098</v>
+      </c>
+      <c r="B118">
+        <v>29</v>
+      </c>
+      <c r="C118">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>6424</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>6540</v>
+      </c>
+      <c r="B120">
+        <v>29</v>
+      </c>
+      <c r="C120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>6929</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>6931</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>6935</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>7004</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>7007</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>7084</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>7457</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>7705</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>8055</v>
+      </c>
+      <c r="B129">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>8104</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>8216</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>8217</v>
+      </c>
+      <c r="B132">
+        <v>25</v>
+      </c>
+      <c r="C132">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>8635</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>8648</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>8674</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>8675</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>8676</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>8754</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>8853</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>8927</v>
+      </c>
+      <c r="B140">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>8944</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>8990</v>
+      </c>
+      <c r="B142">
+        <v>29</v>
+      </c>
+      <c r="C142">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>9085</v>
+      </c>
+      <c r="B143">
+        <v>29</v>
+      </c>
+      <c r="C143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>9289</v>
+      </c>
+      <c r="B144">
+        <v>29</v>
+      </c>
+      <c r="C144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>9507</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>9507</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>9691</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>9796</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>9830</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>9833</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>9997</v>
+      </c>
+      <c r="B151">
+        <v>29</v>
+      </c>
+      <c r="C151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>10105</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>10149</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>10406</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>10409</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>10410</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>10411</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>10507</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>10517</v>
+      </c>
+      <c r="B159">
+        <v>29</v>
+      </c>
+      <c r="C159">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>10524</v>
+      </c>
+      <c r="B160">
+        <v>29</v>
+      </c>
+      <c r="C160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>10530</v>
+      </c>
+      <c r="B161">
+        <v>29</v>
+      </c>
+      <c r="C161">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>10716</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>10720</v>
+      </c>
+      <c r="B163">
+        <v>29</v>
+      </c>
+      <c r="C163">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>10721</v>
+      </c>
+      <c r="B164">
+        <v>29</v>
+      </c>
+      <c r="C164">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>10780</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>10825</v>
+      </c>
+      <c r="B166">
+        <v>21</v>
+      </c>
+      <c r="C166">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>10906</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>11080</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>11081</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>11087</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>11088</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>11089</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>11090</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>11091</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>11134</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>11160</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>11427</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>11454</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>11467</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>11471</v>
+      </c>
+      <c r="B180">
+        <v>12</v>
+      </c>
+      <c r="C180">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>11526</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>11587</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>11610</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>11681</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>11684</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>11718</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>11813</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>11854</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>11952</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>12010</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>12059</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>12353</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>12506</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>12535</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>12539</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>12616</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>12661</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>12675</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>12728</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>12764</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>12923</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>13023</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>13033</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>13034</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>13259</v>
+      </c>
+      <c r="B205">
+        <v>29</v>
+      </c>
+      <c r="C205">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>13260</v>
+      </c>
+      <c r="B206">
+        <v>29</v>
+      </c>
+      <c r="C206">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>13264</v>
+      </c>
+      <c r="B207">
+        <v>29</v>
+      </c>
+      <c r="C207">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>13280</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>13283</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>13286</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>13467</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>13484</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>13488</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>13489</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>13962</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>20927</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>20969</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>21687</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>21697</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>21699</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>21712</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>21793</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>21807</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>21810</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>22313</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>22317</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>22554</v>
+      </c>
+      <c r="B227">
+        <v>10</v>
+      </c>
+      <c r="C227">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>22565</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>22667</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>22935</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>23339</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>23380</v>
+      </c>
+      <c r="B232">
+        <v>29</v>
+      </c>
+      <c r="C232">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>23489</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>23491</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>23493</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>23494</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>23960</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>23961</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>23992</v>
+      </c>
+      <c r="B239">
+        <v>29</v>
+      </c>
+      <c r="C239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>24126</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>24127</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>24253</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>24257</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>24260</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>24566</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>24567</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>24712</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>25278</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
         <v>25345</v>
       </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83">
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,142 +410,142 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>123</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,76 +553,76 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>140</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>732</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1498</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>336</v>
+        <v>144</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>346</v>
+        <v>145</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>389</v>
+        <v>146</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -641,128 +641,128 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>424</v>
+        <v>151</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>641</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>435</v>
+        <v>152</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C25">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>436</v>
+        <v>159</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>440</v>
+        <v>161</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>224</v>
+        <v>847</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>470</v>
+        <v>167</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>590</v>
+        <v>168</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>593</v>
+        <v>192</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>257</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>615</v>
+        <v>214</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>117</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>616</v>
+        <v>216</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>738</v>
+        <v>217</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>823</v>
+        <v>305</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>880</v>
+        <v>307</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -773,73 +773,73 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>927</v>
+        <v>308</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>949</v>
+        <v>330</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>955</v>
+        <v>335</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>972</v>
+        <v>336</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1055</v>
+        <v>344</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1059</v>
+        <v>345</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1070</v>
+        <v>361</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -850,43 +850,43 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1087</v>
+        <v>409</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1309</v>
+        <v>418</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1406</v>
+        <v>434</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1409</v>
+        <v>435</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -894,142 +894,142 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1413</v>
+        <v>436</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1414</v>
+        <v>589</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1446</v>
+        <v>590</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1447</v>
+        <v>593</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>43</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1452</v>
+        <v>616</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1504</v>
+        <v>738</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1519</v>
+        <v>947</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>1851</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1601</v>
+        <v>949</v>
       </c>
       <c r="B54">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1602</v>
+        <v>950</v>
       </c>
       <c r="B55">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1622</v>
+        <v>955</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1654</v>
+        <v>972</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>105</v>
+        <v>690</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1661</v>
+        <v>990</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1691</v>
+        <v>995</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1703</v>
+        <v>997</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -1048,142 +1048,142 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1706</v>
+        <v>1006</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1766</v>
+        <v>1059</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1801</v>
+        <v>1082</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>109</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>2049</v>
+        <v>1124</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>2103</v>
+        <v>1163</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>2105</v>
+        <v>1309</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>344</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>2109</v>
+        <v>1409</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>2188</v>
+        <v>1413</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C68">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>2335</v>
+        <v>1429</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2336</v>
+        <v>1504</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>677</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>2438</v>
+        <v>1519</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>62</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>2492</v>
+        <v>1598</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C72">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>2497</v>
+        <v>1599</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>2703</v>
+        <v>1602</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C74">
         <v>7</v>
@@ -1202,21 +1202,21 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>2726</v>
+        <v>1622</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>2729</v>
+        <v>1654</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>7</v>
@@ -1224,18 +1224,18 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>2731</v>
+        <v>1656</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>2735</v>
+        <v>1661</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1246,65 +1246,65 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2736</v>
+        <v>1667</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>61</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>2774</v>
+        <v>1691</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>2859</v>
+        <v>1699</v>
       </c>
       <c r="B81">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2990</v>
+        <v>1706</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>2991</v>
+        <v>1766</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C83">
-        <v>44</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>3048</v>
+        <v>1777</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>7</v>
@@ -1312,62 +1312,62 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>3429</v>
+        <v>2049</v>
       </c>
       <c r="B85">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>63</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>3475</v>
+        <v>2050</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>3478</v>
+        <v>2054</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>541</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>3495</v>
+        <v>2103</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>1180</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3673</v>
+        <v>2108</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>3892</v>
+        <v>2109</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1378,98 +1378,98 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>3977</v>
+        <v>2168</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
       <c r="C91">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>4043</v>
+        <v>2169</v>
       </c>
       <c r="B92">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>4063</v>
+        <v>2188</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>600</v>
+        <v>949</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>4223</v>
+        <v>2335</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>4867</v>
+        <v>2421</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C95">
-        <v>91</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>5020</v>
+        <v>2422</v>
       </c>
       <c r="B96">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C96">
-        <v>549</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>5081</v>
+        <v>2438</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>752</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>5083</v>
+        <v>2537</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>5086</v>
+        <v>2729</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -1477,29 +1477,29 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>5121</v>
+        <v>2851</v>
       </c>
       <c r="B100">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>5153</v>
+        <v>2859</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>5165</v>
+        <v>2911</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1510,18 +1510,18 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>5208</v>
+        <v>2912</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>5209</v>
+        <v>3048</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -1532,219 +1532,219 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>5340</v>
+        <v>3049</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>1282</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>5341</v>
+        <v>3258</v>
       </c>
       <c r="B106">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C106">
-        <v>195</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>5343</v>
+        <v>3429</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>5343</v>
+        <v>3430</v>
       </c>
       <c r="B108">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>5452</v>
+        <v>3454</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>5453</v>
+        <v>3475</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>5491</v>
+        <v>3478</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>5493</v>
+        <v>3495</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112">
-        <v>116</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>5584</v>
+        <v>3671</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113">
-        <v>290</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>5642</v>
+        <v>3893</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>5647</v>
+        <v>3898</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>5866</v>
+        <v>3955</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116">
-        <v>245</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>5868</v>
+        <v>3981</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>6098</v>
+        <v>4019</v>
       </c>
       <c r="B118">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>6424</v>
+        <v>4043</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C119">
-        <v>372</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>6540</v>
+        <v>4063</v>
       </c>
       <c r="B120">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <v>623</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>6929</v>
+        <v>4867</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>6931</v>
+        <v>5005</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>6935</v>
+        <v>5020</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>592</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>7004</v>
+        <v>5081</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124">
         <v>7</v>
@@ -1752,98 +1752,98 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>7007</v>
+        <v>5086</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>7084</v>
+        <v>5121</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>332</v>
       </c>
       <c r="C126">
-        <v>149</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>7457</v>
+        <v>5152</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>7705</v>
+        <v>5153</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>8055</v>
+        <v>5165</v>
       </c>
       <c r="B129">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>8104</v>
+        <v>5208</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C130">
-        <v>235</v>
+        <v>647</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>8216</v>
+        <v>5209</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>101</v>
+        <v>647</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>8217</v>
+        <v>5341</v>
       </c>
       <c r="B132">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C132">
-        <v>513</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>8635</v>
+        <v>5343</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C133">
         <v>7</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>8648</v>
+        <v>5391</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>7</v>
@@ -1862,29 +1862,29 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>8674</v>
+        <v>5434</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>8675</v>
+        <v>5453</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>327</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>8676</v>
+        <v>5490</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -1895,186 +1895,186 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>8754</v>
+        <v>5584</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>391</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>8853</v>
+        <v>5647</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
       <c r="C139">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>8927</v>
+        <v>6097</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C140">
-        <v>932</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>8944</v>
+        <v>6158</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>256</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>8990</v>
+        <v>6928</v>
       </c>
       <c r="B142">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C142">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>9085</v>
+        <v>6931</v>
       </c>
       <c r="B143">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>9289</v>
+        <v>7004</v>
       </c>
       <c r="B144">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>9507</v>
+        <v>7005</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>9507</v>
+        <v>7007</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>235</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>9691</v>
+        <v>7204</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>9796</v>
+        <v>7457</v>
       </c>
       <c r="B148">
         <v>3</v>
       </c>
       <c r="C148">
-        <v>17</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>9830</v>
+        <v>7558</v>
       </c>
       <c r="B149">
         <v>3</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>9833</v>
+        <v>7567</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>9997</v>
+        <v>8058</v>
       </c>
       <c r="B151">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>10105</v>
+        <v>8104</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>7</v>
+        <v>234</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>10149</v>
+        <v>8106</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C153">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>10406</v>
+        <v>8121</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C154">
         <v>7</v>
@@ -2082,32 +2082,32 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>10409</v>
+        <v>8216</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>163</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>10410</v>
+        <v>8217</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C156">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>10411</v>
+        <v>8274</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C157">
         <v>7</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>10507</v>
+        <v>8557</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158">
         <v>7</v>
@@ -2126,21 +2126,21 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>10517</v>
+        <v>8635</v>
       </c>
       <c r="B159">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C159">
-        <v>80</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>10524</v>
+        <v>8649</v>
       </c>
       <c r="B160">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C160">
         <v>7</v>
@@ -2148,54 +2148,54 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>10530</v>
+        <v>8672</v>
       </c>
       <c r="B161">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C161">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>10716</v>
+        <v>8674</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>112</v>
+        <v>327</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>10720</v>
+        <v>8675</v>
       </c>
       <c r="B163">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>38</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>10721</v>
+        <v>8676</v>
       </c>
       <c r="B164">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C164">
-        <v>40</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>10780</v>
+        <v>8897</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C165">
         <v>7</v>
@@ -2203,117 +2203,117 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>10825</v>
+        <v>8898</v>
       </c>
       <c r="B166">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>789</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>10906</v>
+        <v>8943</v>
       </c>
       <c r="B167">
         <v>3</v>
       </c>
       <c r="C167">
-        <v>1212</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>11080</v>
+        <v>8990</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C168">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>11081</v>
+        <v>9081</v>
       </c>
       <c r="B169">
         <v>3</v>
       </c>
       <c r="C169">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>11087</v>
+        <v>9087</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C170">
-        <v>635</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>11088</v>
+        <v>9207</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C171">
-        <v>635</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>11089</v>
+        <v>9239</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C172">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>11090</v>
+        <v>9288</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C173">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>11091</v>
+        <v>9609</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>11134</v>
+        <v>9690</v>
       </c>
       <c r="B175">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>234</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>11160</v>
+        <v>9691</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -2324,32 +2324,32 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>11427</v>
+        <v>9827</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C177">
-        <v>560</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>11454</v>
+        <v>9829</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C178">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>11467</v>
+        <v>9910</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C179">
         <v>7</v>
@@ -2357,131 +2357,131 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>11471</v>
+        <v>9997</v>
       </c>
       <c r="B180">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C180">
-        <v>49</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>11526</v>
+        <v>10149</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C181">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>11587</v>
+        <v>10170</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>11610</v>
+        <v>10175</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>170</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>11681</v>
+        <v>10407</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C184">
-        <v>11</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>11684</v>
+        <v>10408</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>847</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>11718</v>
+        <v>10514</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C186">
-        <v>7</v>
+        <v>400</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>11813</v>
+        <v>10529</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C187">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>11854</v>
+        <v>10530</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C188">
-        <v>115</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>11952</v>
+        <v>10616</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>12010</v>
+        <v>10716</v>
       </c>
       <c r="B190">
         <v>3</v>
       </c>
       <c r="C190">
-        <v>173</v>
+        <v>115</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>12059</v>
+        <v>10780</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C191">
         <v>7</v>
@@ -2489,183 +2489,183 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>12353</v>
+        <v>10825</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C192">
-        <v>7</v>
+        <v>792</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>12506</v>
+        <v>10993</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>12535</v>
+        <v>11089</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194">
-        <v>67</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>12539</v>
+        <v>11116</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>12616</v>
+        <v>11150</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>12661</v>
+        <v>11396</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>12675</v>
+        <v>11399</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>12728</v>
+        <v>11404</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199">
-        <v>356</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>12764</v>
+        <v>11454</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>12923</v>
+        <v>11467</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>13023</v>
+        <v>11490</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C202">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>13033</v>
+        <v>11582</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C203">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>13034</v>
+        <v>11684</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204">
-        <v>673</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>13259</v>
+        <v>11687</v>
       </c>
       <c r="B205">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C205">
-        <v>7</v>
+        <v>354</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>13260</v>
+        <v>11739</v>
       </c>
       <c r="B206">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C206">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>13264</v>
+        <v>11767</v>
       </c>
       <c r="B207">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C207">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>13280</v>
+        <v>11848</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>13283</v>
+        <v>11868</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C209">
         <v>7</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>13286</v>
+        <v>11952</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -2698,43 +2698,43 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>13467</v>
+        <v>12010</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C211">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>13484</v>
+        <v>12128</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="C212">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>13488</v>
+        <v>12212</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C213">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>13489</v>
+        <v>12239</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C214">
         <v>7</v>
@@ -2742,186 +2742,186 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>13962</v>
+        <v>12479</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C215">
-        <v>7</v>
+        <v>737</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>20927</v>
+        <v>12506</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>20969</v>
+        <v>12539</v>
       </c>
       <c r="B217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>21687</v>
+        <v>12546</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C218">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>21697</v>
+        <v>12661</v>
       </c>
       <c r="B219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C219">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>21699</v>
+        <v>12764</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220">
-        <v>7</v>
+        <v>869</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>21712</v>
+        <v>13023</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C221">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>21793</v>
+        <v>13028</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C222">
-        <v>7</v>
+        <v>167</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>21807</v>
+        <v>13249</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C223">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>21810</v>
+        <v>13280</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224">
-        <v>110</v>
+        <v>360</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>22313</v>
+        <v>13403</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C225">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>22317</v>
+        <v>13893</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226">
-        <v>358</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>22554</v>
+        <v>13968</v>
       </c>
       <c r="B227">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>430</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>22565</v>
+        <v>14017</v>
       </c>
       <c r="B228">
         <v>3</v>
       </c>
       <c r="C228">
-        <v>8</v>
+        <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>22667</v>
+        <v>18964</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>22935</v>
+        <v>19685</v>
       </c>
       <c r="B230">
         <v>1</v>
       </c>
       <c r="C230">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>23339</v>
+        <v>19964</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C231">
         <v>7</v>
@@ -2929,183 +2929,183 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>23380</v>
+        <v>19970</v>
       </c>
       <c r="B232">
         <v>29</v>
       </c>
       <c r="C232">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>23489</v>
+        <v>20486</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>23491</v>
+        <v>20486</v>
       </c>
       <c r="B234">
         <v>3</v>
       </c>
       <c r="C234">
-        <v>244</v>
+        <v>708</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>23493</v>
+        <v>20498</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C235">
-        <v>242</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>23494</v>
+        <v>20650</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>243</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>23960</v>
+        <v>20927</v>
       </c>
       <c r="B237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C237">
-        <v>717</v>
+        <v>92</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>23961</v>
+        <v>21454</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>23992</v>
+        <v>21699</v>
       </c>
       <c r="B239">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C239">
-        <v>7</v>
+        <v>216</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>24126</v>
+        <v>21798</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C240">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>24127</v>
+        <v>21810</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C241">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>24253</v>
+        <v>22313</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C242">
-        <v>215</v>
+        <v>79</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>24257</v>
+        <v>22316</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C243">
-        <v>160</v>
+        <v>364</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>24260</v>
+        <v>22558</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C244">
-        <v>160</v>
+        <v>558</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>24566</v>
+        <v>22631</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C245">
-        <v>366</v>
+        <v>837</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>24567</v>
+        <v>22634</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246">
-        <v>370</v>
+        <v>180</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>24712</v>
+        <v>22665</v>
       </c>
       <c r="B247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C247">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>25278</v>
+        <v>22667</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -3116,13 +3116,145 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
+        <v>22928</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>23491</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>23688</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>23994</v>
+      </c>
+      <c r="B252">
+        <v>29</v>
+      </c>
+      <c r="C252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>24252</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>24260</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>24566</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>24567</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>24707</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>24708</v>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>25344</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
         <v>25345</v>
       </c>
-      <c r="B249">
-        <v>3</v>
-      </c>
-      <c r="C249">
-        <v>7</v>
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>25899</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C261"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,191 +405,191 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>493</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>943</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>88</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>259</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>57</v>
+        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>57</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>1287</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -597,142 +597,142 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>180</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>832</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>847</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>264</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>828</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>752</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -740,32 +740,32 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>172</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>307</v>
+        <v>201</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -773,54 +773,54 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>335</v>
+        <v>216</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>1504</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -828,62 +828,62 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>370</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>62</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>434</v>
+        <v>345</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>116</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -894,150 +894,150 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>589</v>
+        <v>413</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>590</v>
+        <v>424</v>
       </c>
       <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
         <v>15</v>
-      </c>
-      <c r="C49">
-        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>593</v>
+        <v>434</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
-        <v>263</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>616</v>
+        <v>435</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>738</v>
+        <v>436</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>46</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>947</v>
+        <v>491</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>949</v>
+        <v>590</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>950</v>
+        <v>616</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>66</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>955</v>
+        <v>738</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>122</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>972</v>
+        <v>880</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>690</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>990</v>
+        <v>944</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>995</v>
+        <v>947</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -1054,18 +1054,18 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1059</v>
+        <v>1080</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>298</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1076,51 +1076,51 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1309</v>
+        <v>1163</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>61</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1409</v>
+        <v>1309</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1136,43 +1136,43 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1429</v>
+        <v>1414</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C69">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1504</v>
+        <v>1429</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1519</v>
+        <v>1492</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>1886</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1598</v>
+        <v>1504</v>
       </c>
       <c r="B72">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -1180,43 +1180,43 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1599</v>
+        <v>1519</v>
       </c>
       <c r="B73">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B74">
         <v>68</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>1622</v>
+        <v>1602</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C75">
-        <v>122</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>1654</v>
+        <v>1604</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C76">
         <v>7</v>
@@ -1224,13 +1224,13 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>1656</v>
+        <v>1622</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,180 +1241,180 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1667</v>
+        <v>1766</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>245</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>1691</v>
+        <v>1776</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>1699</v>
+        <v>1777</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>1706</v>
+        <v>1801</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>42</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>1766</v>
+        <v>1813</v>
       </c>
       <c r="B83">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>216</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>1777</v>
+        <v>2049</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>627</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2049</v>
+        <v>2103</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C85">
-        <v>626</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>2050</v>
+        <v>2104</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86">
-        <v>7</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>2054</v>
+        <v>2109</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>541</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>2103</v>
+        <v>2188</v>
       </c>
       <c r="B88">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>398</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2108</v>
+        <v>2328</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>305</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2109</v>
+        <v>2336</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>671</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>2168</v>
+        <v>2422</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>2169</v>
+        <v>2424</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>949</v>
+        <v>745</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>2335</v>
+        <v>2497</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -1422,106 +1422,106 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>2421</v>
+        <v>2731</v>
       </c>
       <c r="B95">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>253</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>2422</v>
+        <v>2735</v>
       </c>
       <c r="B96">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>2438</v>
+        <v>2744</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>752</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>2537</v>
+        <v>2776</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98">
-        <v>43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>2729</v>
+        <v>2836</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>2851</v>
+        <v>2859</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>2859</v>
+        <v>2879</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>2912</v>
+        <v>3048</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>56</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -1532,54 +1532,54 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>3049</v>
+        <v>3429</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C105">
-        <v>155</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>3258</v>
+        <v>3454</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>226</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>3429</v>
+        <v>3462</v>
       </c>
       <c r="B107">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>3430</v>
+        <v>3475</v>
       </c>
       <c r="B108">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>3454</v>
+        <v>3478</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109">
         <v>7</v>
@@ -1587,54 +1587,54 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>3475</v>
+        <v>3495</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>3478</v>
+        <v>3670</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>3495</v>
+        <v>3673</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>1144</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>3671</v>
+        <v>3900</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3893</v>
+        <v>3955</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>7</v>
@@ -1642,21 +1642,21 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3898</v>
+        <v>3961</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>3955</v>
+        <v>4715</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -1664,109 +1664,109 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>3981</v>
+        <v>4960</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>332</v>
       </c>
       <c r="C117">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>4019</v>
+        <v>5020</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>4043</v>
+        <v>5081</v>
       </c>
       <c r="B119">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>129</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>4063</v>
+        <v>5086</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>623</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>4867</v>
+        <v>5151</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>5005</v>
+        <v>5152</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>5020</v>
+        <v>5165</v>
       </c>
       <c r="B123">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>592</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>5081</v>
+        <v>5208</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>648</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>5086</v>
+        <v>5243</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>5121</v>
+        <v>5341</v>
       </c>
       <c r="B126">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="C126">
         <v>7</v>
@@ -1774,76 +1774,76 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>5152</v>
+        <v>5342</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C127">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>5153</v>
+        <v>5343</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>5165</v>
+        <v>5577</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C129">
-        <v>56</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>5208</v>
+        <v>5584</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>647</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>5209</v>
+        <v>5647</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131">
-        <v>647</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>5341</v>
+        <v>5656</v>
       </c>
       <c r="B132">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C132">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>5343</v>
+        <v>5723</v>
       </c>
       <c r="B133">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C133">
         <v>7</v>
@@ -1851,54 +1851,54 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>5391</v>
+        <v>6072</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>5434</v>
+        <v>6575</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135">
-        <v>57</v>
+        <v>297</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>5453</v>
+        <v>6965</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>5490</v>
+        <v>6968</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>5584</v>
+        <v>7005</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>7</v>
@@ -1906,241 +1906,241 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>5647</v>
+        <v>7204</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>6097</v>
+        <v>7520</v>
       </c>
       <c r="B140">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>6158</v>
+        <v>7885</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>304</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>6928</v>
+        <v>7886</v>
       </c>
       <c r="B142">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>7</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>6931</v>
+        <v>8058</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>7004</v>
+        <v>8106</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>7005</v>
+        <v>8216</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>7007</v>
+        <v>8283</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>552</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>7204</v>
+        <v>8648</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>7457</v>
+        <v>8650</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148">
-        <v>265</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>7558</v>
+        <v>8676</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149">
-        <v>76</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>7567</v>
+        <v>8677</v>
       </c>
       <c r="B150">
         <v>3</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>8058</v>
+        <v>8754</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151">
-        <v>130</v>
+        <v>403</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>8104</v>
+        <v>8915</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152">
-        <v>234</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>8106</v>
+        <v>8927</v>
       </c>
       <c r="B153">
         <v>10</v>
       </c>
       <c r="C153">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>8121</v>
+        <v>8938</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>7</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>8216</v>
+        <v>8939</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>8217</v>
+        <v>8943</v>
       </c>
       <c r="B156">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C156">
-        <v>13</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>8274</v>
+        <v>8990</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C157">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>8557</v>
+        <v>9081</v>
       </c>
       <c r="B158">
         <v>3</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>8635</v>
+        <v>9083</v>
       </c>
       <c r="B159">
         <v>3</v>
       </c>
       <c r="C159">
-        <v>396</v>
+        <v>566</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>8649</v>
+        <v>9085</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C160">
         <v>7</v>
@@ -2148,54 +2148,54 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>8672</v>
+        <v>9087</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C161">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>8674</v>
+        <v>9087</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C162">
-        <v>327</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>8675</v>
+        <v>9239</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C163">
-        <v>328</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>8676</v>
+        <v>9507</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>328</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>8897</v>
+        <v>9611</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C165">
         <v>7</v>
@@ -2203,120 +2203,120 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>8898</v>
+        <v>9787</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C166">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>8943</v>
+        <v>9829</v>
       </c>
       <c r="B167">
         <v>3</v>
       </c>
       <c r="C167">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>8990</v>
+        <v>9877</v>
       </c>
       <c r="B168">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C168">
-        <v>129</v>
+        <v>46</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>9081</v>
+        <v>10080</v>
       </c>
       <c r="B169">
         <v>3</v>
       </c>
       <c r="C169">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>9087</v>
+        <v>10149</v>
       </c>
       <c r="B170">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C170">
-        <v>7</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>9207</v>
+        <v>10407</v>
       </c>
       <c r="B171">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C171">
-        <v>45</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>9239</v>
+        <v>10516</v>
       </c>
       <c r="B172">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C172">
-        <v>96</v>
+        <v>690</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>9288</v>
+        <v>10524</v>
       </c>
       <c r="B173">
         <v>29</v>
       </c>
       <c r="C173">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>9609</v>
+        <v>10616</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>9690</v>
+        <v>10716</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C175">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>9691</v>
+        <v>10780</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C176">
         <v>7</v>
@@ -2324,32 +2324,32 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>9827</v>
+        <v>11059</v>
       </c>
       <c r="B177">
         <v>3</v>
       </c>
       <c r="C177">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>9829</v>
+        <v>11081</v>
       </c>
       <c r="B178">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>7</v>
+        <v>424</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>9910</v>
+        <v>11089</v>
       </c>
       <c r="B179">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C179">
         <v>7</v>
@@ -2357,120 +2357,120 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>9997</v>
+        <v>11131</v>
       </c>
       <c r="B180">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C180">
-        <v>154</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>10149</v>
+        <v>11216</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C181">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>10170</v>
+        <v>11399</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>10175</v>
+        <v>11467</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>10407</v>
+        <v>11504</v>
       </c>
       <c r="B184">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C184">
-        <v>1300</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>10408</v>
+        <v>11510</v>
       </c>
       <c r="B185">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C185">
-        <v>847</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>10514</v>
+        <v>11555</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>400</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>10529</v>
+        <v>11687</v>
       </c>
       <c r="B187">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C187">
-        <v>48</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>10530</v>
+        <v>11737</v>
       </c>
       <c r="B188">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C188">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>10616</v>
+        <v>11767</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>10716</v>
+        <v>11793</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190">
         <v>115</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>10780</v>
+        <v>11846</v>
       </c>
       <c r="B191">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C191">
         <v>7</v>
@@ -2489,175 +2489,175 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>10825</v>
+        <v>11848</v>
       </c>
       <c r="B192">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>792</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>10993</v>
+        <v>11854</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>11089</v>
+        <v>11868</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C194">
-        <v>191</v>
+        <v>337</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>11116</v>
+        <v>11895</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>11150</v>
+        <v>11952</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>11396</v>
+        <v>12010</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C197">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>11399</v>
+        <v>12059</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C198">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>11404</v>
+        <v>12128</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C199">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>11454</v>
+        <v>12347</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C200">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>11467</v>
+        <v>12350</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>11490</v>
+        <v>12573</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>11582</v>
+        <v>12661</v>
       </c>
       <c r="B203">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C203">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>11684</v>
+        <v>12923</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C204">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>11687</v>
+        <v>12925</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205">
-        <v>354</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>11739</v>
+        <v>13023</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C206">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>11767</v>
+        <v>13028</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C207">
         <v>7</v>
@@ -2665,21 +2665,21 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>11848</v>
+        <v>13249</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>11868</v>
+        <v>13259</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C209">
         <v>7</v>
@@ -2687,186 +2687,186 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>11952</v>
+        <v>13260</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C210">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>12010</v>
+        <v>13264</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C211">
-        <v>173</v>
+        <v>83</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>12128</v>
+        <v>13276</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C212">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>12212</v>
+        <v>13281</v>
       </c>
       <c r="B213">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C213">
-        <v>134</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>12239</v>
+        <v>13286</v>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C214">
-        <v>7</v>
+        <v>377</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>12479</v>
+        <v>13293</v>
       </c>
       <c r="B215">
         <v>3</v>
       </c>
       <c r="C215">
-        <v>737</v>
+        <v>342</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>12506</v>
+        <v>13299</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>12539</v>
+        <v>13403</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C217">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>12546</v>
+        <v>13965</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>12661</v>
+        <v>13968</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="C219">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>12764</v>
+        <v>14037</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C220">
-        <v>869</v>
+        <v>395</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>13023</v>
+        <v>14038</v>
       </c>
       <c r="B221">
         <v>3</v>
       </c>
       <c r="C221">
-        <v>10</v>
+        <v>330</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>13028</v>
+        <v>14039</v>
       </c>
       <c r="B222">
         <v>3</v>
       </c>
       <c r="C222">
-        <v>167</v>
+        <v>319</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>13249</v>
+        <v>19583</v>
       </c>
       <c r="B223">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C223">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>13280</v>
+        <v>19971</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C224">
-        <v>360</v>
+        <v>436</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>13403</v>
+        <v>19987</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>13893</v>
+        <v>20650</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226">
         <v>7</v>
@@ -2874,274 +2874,274 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>13968</v>
+        <v>21068</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C227">
-        <v>7</v>
+        <v>613</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>14017</v>
+        <v>21088</v>
       </c>
       <c r="B228">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C228">
-        <v>226</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>18964</v>
+        <v>21703</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C229">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>19685</v>
+        <v>21798</v>
       </c>
       <c r="B230">
         <v>1</v>
       </c>
       <c r="C230">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>19964</v>
+        <v>21807</v>
       </c>
       <c r="B231">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C231">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>19970</v>
+        <v>21810</v>
       </c>
       <c r="B232">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C232">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>20486</v>
+        <v>21946</v>
       </c>
       <c r="B233">
         <v>1</v>
       </c>
       <c r="C233">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>20486</v>
+        <v>22317</v>
       </c>
       <c r="B234">
         <v>3</v>
       </c>
       <c r="C234">
-        <v>708</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>20498</v>
+        <v>22554</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C235">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>20650</v>
+        <v>22565</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>20927</v>
+        <v>22590</v>
       </c>
       <c r="B237">
         <v>1</v>
       </c>
       <c r="C237">
-        <v>92</v>
+        <v>336</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>21454</v>
+        <v>22634</v>
       </c>
       <c r="B238">
         <v>2</v>
       </c>
       <c r="C238">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>21699</v>
+        <v>22667</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C239">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>21798</v>
+        <v>22925</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C240">
-        <v>159</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>21810</v>
+        <v>23231</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C241">
-        <v>113</v>
+        <v>686</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>22313</v>
+        <v>23235</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C242">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>22316</v>
+        <v>23278</v>
       </c>
       <c r="B243">
         <v>3</v>
       </c>
       <c r="C243">
-        <v>364</v>
+        <v>299</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>22558</v>
+        <v>23335</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C244">
-        <v>558</v>
+        <v>412</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>22631</v>
+        <v>23489</v>
       </c>
       <c r="B245">
         <v>3</v>
       </c>
       <c r="C245">
-        <v>837</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>22634</v>
+        <v>23491</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C246">
-        <v>180</v>
+        <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>22665</v>
+        <v>23492</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C247">
-        <v>17</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>22667</v>
+        <v>23493</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C248">
-        <v>7</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>22928</v>
+        <v>23494</v>
       </c>
       <c r="B249">
         <v>3</v>
       </c>
       <c r="C249">
-        <v>7</v>
+        <v>244</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>23491</v>
+        <v>23599</v>
       </c>
       <c r="B250">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C250">
-        <v>242</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>23688</v>
+        <v>23611</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C251">
         <v>7</v>
@@ -3149,112 +3149,90 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>23994</v>
+        <v>23960</v>
       </c>
       <c r="B252">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C252">
-        <v>7</v>
+        <v>767</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>24252</v>
+        <v>24127</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C253">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>24260</v>
+        <v>24252</v>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
       <c r="C254">
-        <v>161</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>24566</v>
+        <v>24257</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
       <c r="C255">
-        <v>376</v>
+        <v>162</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>24567</v>
+        <v>24260</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
       <c r="C256">
-        <v>371</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>24707</v>
+        <v>24708</v>
       </c>
       <c r="B257">
         <v>3</v>
       </c>
       <c r="C257">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>24708</v>
+        <v>25344</v>
       </c>
       <c r="B258">
         <v>3</v>
       </c>
       <c r="C258">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>25344</v>
+        <v>25960</v>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259">
         <v>7</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260">
-        <v>25345</v>
-      </c>
-      <c r="B260">
-        <v>3</v>
-      </c>
-      <c r="C260">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261">
-        <v>25899</v>
-      </c>
-      <c r="B261">
-        <v>2</v>
-      </c>
-      <c r="C261">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
